--- a/output/fit_clients/fit_round_378.xlsx
+++ b/output/fit_clients/fit_round_378.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2448699964.547913</v>
+        <v>2070508570.599811</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07271380681754119</v>
+        <v>0.07325236580549262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03040359173194739</v>
+        <v>0.0376691564198998</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1224350038.263948</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1886843524.848337</v>
+        <v>2370131798.786578</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1146102576626667</v>
+        <v>0.1165384684719178</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04581691426744833</v>
+        <v>0.04707199307551733</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>943421784.9671009</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4744946121.741082</v>
+        <v>4846274527.915529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1447797199480767</v>
+        <v>0.1172665867671327</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02646807415432112</v>
+        <v>0.02629055551910725</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>136</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2372473127.847889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2818519418.188907</v>
+        <v>2652250794.179162</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09942583927495499</v>
+        <v>0.08966594401542524</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03315482307074633</v>
+        <v>0.03480635296329078</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>140</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1409259790.98555</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1834730437.226649</v>
+        <v>2032244855.795661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1189899668866815</v>
+        <v>0.102162640699549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04478675400867019</v>
+        <v>0.05528745035185598</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>917365266.1072767</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2690149561.081579</v>
+        <v>2857046797.428563</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07113780352976072</v>
+        <v>0.09631492061831216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04841329023288397</v>
+        <v>0.03668700657429463</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>118</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1345074775.257876</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3339778948.58509</v>
+        <v>2765679096.684267</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1696203074582048</v>
+        <v>0.2140098681082475</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03299662786360719</v>
+        <v>0.03265423684913187</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>121</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1669889566.554185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1766012121.474907</v>
+        <v>1487138316.542423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1344681803647253</v>
+        <v>0.1543047658516481</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02609734906756518</v>
+        <v>0.03705560098152854</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>883006119.8220466</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4845512837.443913</v>
+        <v>3590766488.901832</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1772628258877663</v>
+        <v>0.1892985257818176</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03622568209423978</v>
+        <v>0.03635346029051845</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>159</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2422756506.072035</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3176727871.651403</v>
+        <v>2856240768.773005</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1670867234280772</v>
+        <v>0.1709074033340594</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03993401881022735</v>
+        <v>0.0413970229160617</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>156</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1588363891.108516</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3002182152.62448</v>
+        <v>2112912811.698307</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1912572736344885</v>
+        <v>0.1447911959438273</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03365352730823724</v>
+        <v>0.04456429555727685</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>129</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1501091094.546425</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3950960849.353143</v>
+        <v>3637157645.728826</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1006598371687199</v>
+        <v>0.0760020313863949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03034024433411614</v>
+        <v>0.02540189610362338</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>126</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1975480482.106925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2454281643.546432</v>
+        <v>2688901632.259923</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1484333336882784</v>
+        <v>0.1644199763107743</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03104164242719894</v>
+        <v>0.03199038363590719</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>121</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1227140895.740627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1351155950.70039</v>
+        <v>1250598717.884642</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06765906378099996</v>
+        <v>0.1052569953813323</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04960687999873922</v>
+        <v>0.04271186022601762</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>675578027.113317</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2290135180.67191</v>
+        <v>2345891232.563903</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08770920636078119</v>
+        <v>0.08722542422106246</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03468084586103835</v>
+        <v>0.04870504221931899</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1145067639.923339</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3367715459.861092</v>
+        <v>4147605128.769473</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567464017238281</v>
+        <v>0.106935345610168</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03958024364369409</v>
+        <v>0.0443574072255544</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1683857795.785781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2816339723.167803</v>
+        <v>2811661021.897191</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1819854614050148</v>
+        <v>0.1479302476824746</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02721348670722641</v>
+        <v>0.02300910515272574</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>123</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1408169905.129593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1095741005.927249</v>
+        <v>1115774411.520817</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1351852409200499</v>
+        <v>0.1272666148402693</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02512326324779498</v>
+        <v>0.01851435542352391</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>547870555.4970653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2082377611.43052</v>
+        <v>2399191725.189871</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1260965836537395</v>
+        <v>0.1402782942181953</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03100827661779268</v>
+        <v>0.02903705416866111</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1041188823.298588</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2338416159.407708</v>
+        <v>2250393752.070181</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06629645409773428</v>
+        <v>0.06881310196723314</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0371086655565482</v>
+        <v>0.0448878688418313</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1169208083.308889</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3186470355.368975</v>
+        <v>3568876161.95628</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221689148691969</v>
+        <v>0.1124254860245819</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05333628540856485</v>
+        <v>0.03920161752352651</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1593235228.064195</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1266079443.236399</v>
+        <v>1199918830.576292</v>
       </c>
       <c r="F23" t="n">
-        <v>0.127358185179047</v>
+        <v>0.1854279542473215</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04745160033124165</v>
+        <v>0.03325526958138866</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>633039747.0017334</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3892670802.415212</v>
+        <v>2567024544.186705</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09133256767998918</v>
+        <v>0.1103651995737901</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03559595423252251</v>
+        <v>0.03099770081037234</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>110</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1946335376.433122</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1254745326.57812</v>
+        <v>1259690894.333645</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1152874304460933</v>
+        <v>0.08829987369703149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02217911016152135</v>
+        <v>0.02122902461971608</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>627372668.6705246</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1338422732.619782</v>
+        <v>1052134143.36818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0994451020237162</v>
+        <v>0.1092961874651608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02390741731555227</v>
+        <v>0.03252709042716173</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>669211421.2183285</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3827157356.114248</v>
+        <v>3620745117.347116</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09842577471836761</v>
+        <v>0.1570122419435519</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01781558419276833</v>
+        <v>0.02713179058949467</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1913578696.78582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3079277744.041575</v>
+        <v>2654246238.397886</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1478625027757454</v>
+        <v>0.1324130761537791</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04682553356046626</v>
+        <v>0.03598361822651527</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>121</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1539638890.130089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4963937807.064678</v>
+        <v>3988752794.887126</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1239360971250133</v>
+        <v>0.1360734047761363</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03403904140923079</v>
+        <v>0.04664969192911681</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>166</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2481968853.607018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1982591855.294751</v>
+        <v>2175460455.195297</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1354556354705772</v>
+        <v>0.1258290953931169</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03690455023319722</v>
+        <v>0.03882608841526165</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>991295963.1203693</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1173141044.68124</v>
+        <v>1202714952.607153</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1010481754296355</v>
+        <v>0.09710275179119153</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04054931596387018</v>
+        <v>0.04869353763038588</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>586570480.1454479</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1736005178.690282</v>
+        <v>1142783389.616424</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07696597782849104</v>
+        <v>0.1194727861198435</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03082458142817642</v>
+        <v>0.03550400217545947</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>868002706.60048</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2586950627.041682</v>
+        <v>2971351906.871477</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1812688308659842</v>
+        <v>0.1774016505261143</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03871831593137138</v>
+        <v>0.04826729371826698</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>114</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1293475344.35894</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1078666817.757242</v>
+        <v>1436453213.738169</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1020832267128768</v>
+        <v>0.1216537868441414</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02532040119176598</v>
+        <v>0.01933915845821371</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>539333433.8108094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1071096068.391467</v>
+        <v>1127972787.223479</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09976092279360815</v>
+        <v>0.0957978835700577</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03025942594369007</v>
+        <v>0.04401948210795555</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>535548037.1858912</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2322582490.811607</v>
+        <v>2346048026.46714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1810549350831505</v>
+        <v>0.1523441318784523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02306853687140134</v>
+        <v>0.02409288295184344</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>95</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1161291281.625733</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2818014717.591278</v>
+        <v>2527421398.026611</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1074703146116024</v>
+        <v>0.08324910004366175</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0358510356702292</v>
+        <v>0.03670041971121277</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>100</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1409007498.644954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2016837049.526059</v>
+        <v>1601922459.231586</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07607751476459221</v>
+        <v>0.08644182355586966</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03170493891594046</v>
+        <v>0.03342647570897458</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1008418501.021114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1881758687.403593</v>
+        <v>1566854116.738382</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1230607814841341</v>
+        <v>0.1682120291908058</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02117075812465899</v>
+        <v>0.02746329924493565</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>940879356.1920505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1153562366.957951</v>
+        <v>1139618683.513702</v>
       </c>
       <c r="F40" t="n">
-        <v>0.135094096836773</v>
+        <v>0.105559292742304</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04755818424508778</v>
+        <v>0.04958241709861241</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>576781236.4130425</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2257108493.129986</v>
+        <v>2023456208.16281</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1401794467217037</v>
+        <v>0.1316311607234886</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02990935251991587</v>
+        <v>0.0411039129335455</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1128554295.633402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3543680544.572892</v>
+        <v>3410449901.794729</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08726973465814447</v>
+        <v>0.1093596473893581</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03536155081250857</v>
+        <v>0.04246401033744112</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1771840270.154043</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2722977870.2328</v>
+        <v>3040581646.62321</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1512870138959653</v>
+        <v>0.1952660978188308</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01865641311152858</v>
+        <v>0.01576669332157617</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>132</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1361488961.373803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1541830218.486236</v>
+        <v>2077977052.859198</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07467819259132433</v>
+        <v>0.06874219036952639</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02346794682771466</v>
+        <v>0.03642762982485489</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>770915124.1710944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2109082036.9239</v>
+        <v>2342536784.763286</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1667727773988039</v>
+        <v>0.1217000711247836</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04298192516120071</v>
+        <v>0.03783344350968255</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1054541020.337901</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3554552150.426272</v>
+        <v>4970259070.799457</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1337154643244122</v>
+        <v>0.1154213838022296</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03731049629119634</v>
+        <v>0.05991580239645298</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>134</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1777276019.250287</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4688528813.049943</v>
+        <v>3874903612.158066</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1666526592922644</v>
+        <v>0.1412532771457305</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05970449493301994</v>
+        <v>0.04852940755187029</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>101</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2344264444.665253</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3113768875.60441</v>
+        <v>3867496163.537936</v>
       </c>
       <c r="F48" t="n">
-        <v>0.108085050651583</v>
+        <v>0.1015506989893339</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02680780434753099</v>
+        <v>0.03920373839322872</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1556884523.679375</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1658459419.172422</v>
+        <v>1652451279.825978</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1223440163191857</v>
+        <v>0.1425144392242158</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04104272235063414</v>
+        <v>0.04440341713603263</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>829229716.9926667</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4217162221.923159</v>
+        <v>3996195988.008653</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1435958489066441</v>
+        <v>0.10937630260772</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04987467971380891</v>
+        <v>0.04564622685223154</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>129</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2108581084.232502</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>942847888.492219</v>
+        <v>1057619819.046402</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1630440371864181</v>
+        <v>0.1930340244504236</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04573568313673282</v>
+        <v>0.04380913046870116</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>471424037.4878926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4096904570.364325</v>
+        <v>4772812535.811394</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1369951699671396</v>
+        <v>0.105313816667171</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04302646154040336</v>
+        <v>0.04913534851959853</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>155</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2048452335.967321</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3203995243.59961</v>
+        <v>3367929305.315198</v>
       </c>
       <c r="F53" t="n">
-        <v>0.139187580980963</v>
+        <v>0.1430643002001183</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03199563600590371</v>
+        <v>0.03285203815686216</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1601997640.178822</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4359409641.020015</v>
+        <v>4302741877.816242</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1546861078594412</v>
+        <v>0.1074313695960785</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04343820987741275</v>
+        <v>0.04752288609977247</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2179704912.798889</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4517644869.067604</v>
+        <v>3833923533.091042</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1959160702671783</v>
+        <v>0.1570726686484152</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02497100283936084</v>
+        <v>0.03003833037082694</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>112</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2258822432.287019</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1300770534.986016</v>
+        <v>1593337314.834497</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1467141199390406</v>
+        <v>0.1187228015471154</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04622899153550492</v>
+        <v>0.03999082285966488</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>650385339.2795296</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4269070130.998186</v>
+        <v>3909304217.500289</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1774027712733886</v>
+        <v>0.1674662468492642</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02144517058172998</v>
+        <v>0.02078429713169738</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>120</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2134535176.472121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1354134126.560542</v>
+        <v>1481332568.739551</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1990726792549911</v>
+        <v>0.1440405711027632</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02867622161570484</v>
+        <v>0.02879841426334774</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>677067107.7347437</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4950529141.372428</v>
+        <v>4389375872.706089</v>
       </c>
       <c r="F59" t="n">
-        <v>0.126456984902468</v>
+        <v>0.1062419942981381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04663990058419026</v>
+        <v>0.04699491011506975</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>106</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2475264500.780645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3166285304.445591</v>
+        <v>2668688165.468032</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1380423964353147</v>
+        <v>0.2022110269033101</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02952233503733195</v>
+        <v>0.02594403369725876</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1583142740.027752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3111410139.043926</v>
+        <v>2771597272.874711</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1398518714353204</v>
+        <v>0.1145194090264875</v>
       </c>
       <c r="G61" t="n">
-        <v>0.021802358233872</v>
+        <v>0.02232413433018021</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>130</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1555705039.497035</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1415681931.800124</v>
+        <v>2082341722.051746</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1343069607294316</v>
+        <v>0.1345607052635687</v>
       </c>
       <c r="G62" t="n">
-        <v>0.047928096309524</v>
+        <v>0.04753818745004324</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>707840936.3181465</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5229459870.799191</v>
+        <v>4006351627.565485</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07850626584977509</v>
+        <v>0.1009211383783633</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04444872310248644</v>
+        <v>0.04127778867185117</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2614729942.925809</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3983600484.299255</v>
+        <v>4230043090.781811</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1522007768391814</v>
+        <v>0.1404776633630674</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02529395463679402</v>
+        <v>0.03391882272386849</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>118</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1991800276.867426</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4826456971.629478</v>
+        <v>4394573513.897434</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1743090207064608</v>
+        <v>0.1131004826315166</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02428400274132555</v>
+        <v>0.02168033320346002</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>135</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2413228455.098179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3883048697.593142</v>
+        <v>5309920358.099105</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1437652024770084</v>
+        <v>0.1534499219949688</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04326944224273401</v>
+        <v>0.03547924171038279</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>110</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1941524316.126999</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2900981642.825674</v>
+        <v>2600067817.79355</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09504378138778387</v>
+        <v>0.08150119614546444</v>
       </c>
       <c r="G67" t="n">
-        <v>0.050045986668296</v>
+        <v>0.03962823855934956</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>121</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1450490848.075844</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4455024339.803428</v>
+        <v>3815588167.452674</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1562691207779963</v>
+        <v>0.09837842754243296</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03569256129581585</v>
+        <v>0.03235305989323113</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2227512193.271784</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1972276318.629755</v>
+        <v>2287631163.369631</v>
       </c>
       <c r="F69" t="n">
-        <v>0.167416488789307</v>
+        <v>0.165877701847519</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04441411338776765</v>
+        <v>0.05145746163103871</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>986138160.6843601</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2345670976.399623</v>
+        <v>2815757041.760952</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08461486220334526</v>
+        <v>0.08766007780772139</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03356061555446282</v>
+        <v>0.03325255569259483</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>108</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1172835422.691457</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5075629757.364356</v>
+        <v>4391693439.712631</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1715706891078282</v>
+        <v>0.1414440813772212</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03344435781489351</v>
+        <v>0.02470228765456891</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>138</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2537814990.046444</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1982433223.543941</v>
+        <v>2184720115.789971</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06676348542327515</v>
+        <v>0.09211511119842433</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05000964200519608</v>
+        <v>0.03344858579713605</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>991216560.9795463</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3363016477.636285</v>
+        <v>2337020169.018044</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1106048538312053</v>
+        <v>0.0870067903253241</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0514090983147203</v>
+        <v>0.04803649679214246</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>143</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1681508201.54741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3919515374.541582</v>
+        <v>2822394054.345779</v>
       </c>
       <c r="F74" t="n">
-        <v>0.172860441485644</v>
+        <v>0.1697250028221253</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02338364821215379</v>
+        <v>0.03089280241949175</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>128</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1959757673.151442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2239001990.943665</v>
+        <v>2030626289.46671</v>
       </c>
       <c r="F75" t="n">
-        <v>0.140673869926369</v>
+        <v>0.1336874769038571</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03253481858715044</v>
+        <v>0.0235089407169482</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1119500937.326489</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3327817713.965987</v>
+        <v>5080588738.71639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1071549731437822</v>
+        <v>0.1026206416642289</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03095446165080145</v>
+        <v>0.02346917859929668</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1663908813.551195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1411797683.427836</v>
+        <v>1833509169.898318</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1446507182461466</v>
+        <v>0.1561857428434581</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02735614271682933</v>
+        <v>0.02687088945313259</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>705898816.3472756</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3563602665.033953</v>
+        <v>3503683791.344437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1259710636747575</v>
+        <v>0.1223985321664251</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04200668191405255</v>
+        <v>0.04262590112884457</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>131</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1781801329.469147</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1805493959.255959</v>
+        <v>1373559670.077451</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1752172136398696</v>
+        <v>0.1340909957507299</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0275372785107834</v>
+        <v>0.02936764882774613</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>902747067.29563</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3863806109.057294</v>
+        <v>4662786405.077617</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1060668144975276</v>
+        <v>0.1062326948569647</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0283070753260829</v>
+        <v>0.03291728865227248</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>84</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1931903047.222199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5091106857.262838</v>
+        <v>3348277130.750385</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1028151747985028</v>
+        <v>0.1091400260783676</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03246979757951979</v>
+        <v>0.02088245413085498</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2545553432.36952</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3460732373.014317</v>
+        <v>4679876012.271881</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1406847513770507</v>
+        <v>0.1948092962599926</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02067083613608141</v>
+        <v>0.01937290917840838</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>133</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1730366256.34655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1756333189.619098</v>
+        <v>1739904379.827492</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1472864198168678</v>
+        <v>0.1355456410651588</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04423328342414441</v>
+        <v>0.02845235498933677</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>878166549.8346171</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1716535036.843999</v>
+        <v>1629742199.38997</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08685347826494481</v>
+        <v>0.08093458226974028</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04900450591594185</v>
+        <v>0.04169797728142513</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>858267565.0008764</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2700481085.957421</v>
+        <v>2920408607.073363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1475734514643439</v>
+        <v>0.1361602795540013</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05423810453343129</v>
+        <v>0.05340006820967567</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>142</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1350240570.055192</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1762750167.800611</v>
+        <v>2637924167.772143</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1190394282065574</v>
+        <v>0.1190740095570123</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01675702353793876</v>
+        <v>0.02562433380443106</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>881375078.5461806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>941804256.7395313</v>
+        <v>1237006880.863766</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1266588673694131</v>
+        <v>0.121411376947222</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04035187692632883</v>
+        <v>0.0322328604379683</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>470902117.7857978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3341151456.886662</v>
+        <v>3053256555.532187</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1501747386317432</v>
+        <v>0.1394517811217557</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03833801812110741</v>
+        <v>0.03343455565926698</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>149</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1670575792.630119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2734091508.700518</v>
+        <v>2411825894.359596</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1099720524279234</v>
+        <v>0.1488901633461147</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0265663478454773</v>
+        <v>0.03422109700147316</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>128</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1367045811.952739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2098450400.040504</v>
+        <v>1501515270.229321</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1154629605316517</v>
+        <v>0.09575604398100537</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03417329112606536</v>
+        <v>0.03696021226018785</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1049225288.330317</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1615270622.473128</v>
+        <v>1994009367.514678</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1593844950352694</v>
+        <v>0.1366241465469025</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05921925922801866</v>
+        <v>0.05590334142593229</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>807635334.8010961</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1936253573.419102</v>
+        <v>2889249981.666149</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08226939453538497</v>
+        <v>0.07971502261603507</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04699406436777594</v>
+        <v>0.04312081398692075</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>107</v>
-      </c>
-      <c r="J92" t="n">
-        <v>968126728.061849</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3126424399.085061</v>
+        <v>3368748742.384907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08958425275311427</v>
+        <v>0.1009093218576139</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03501124889040675</v>
+        <v>0.03692124067036189</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1563212256.670038</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1696265354.072783</v>
+        <v>1938647000.220876</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1678561345329117</v>
+        <v>0.1324285111066005</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02652906224934234</v>
+        <v>0.03042735080646443</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>848132635.8756493</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2231328264.492101</v>
+        <v>2337065346.469604</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09443991543691477</v>
+        <v>0.1179815649222402</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0356723152982602</v>
+        <v>0.04122097139596149</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1115664187.879285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1730597373.915663</v>
+        <v>1452251185.508881</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1036277634100619</v>
+        <v>0.1418141199374612</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04261793994099577</v>
+        <v>0.03783179818810279</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>865298702.7078038</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3320337313.591573</v>
+        <v>4716304830.722993</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1252327085221654</v>
+        <v>0.1181704253612305</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02365785196456289</v>
+        <v>0.02026668907337243</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1660168658.536255</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2626943340.734588</v>
+        <v>2715507314.600338</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1210377011706945</v>
+        <v>0.1095203639091779</v>
       </c>
       <c r="G98" t="n">
-        <v>0.031073594929857</v>
+        <v>0.02421902098951688</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>100</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1313471629.758501</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2368959426.455278</v>
+        <v>3240560334.400573</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1183807037936379</v>
+        <v>0.1100984426059981</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03481515495001247</v>
+        <v>0.03270090228475978</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>118</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1184479653.51925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3615455323.15913</v>
+        <v>4540639849.747556</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1351436382803431</v>
+        <v>0.1728097411435841</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02521847397684182</v>
+        <v>0.0223730737823011</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1807727701.550594</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2353021860.429861</v>
+        <v>3400190926.697374</v>
       </c>
       <c r="F101" t="n">
-        <v>0.167432029428623</v>
+        <v>0.1926545870519437</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05437631198533609</v>
+        <v>0.03800557069024638</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>154</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1176510933.758867</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_378.xlsx
+++ b/output/fit_clients/fit_round_378.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2070508570.599811</v>
+        <v>1754846498.815847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07325236580549262</v>
+        <v>0.07036056636130773</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0376691564198998</v>
+        <v>0.04012398368665425</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2370131798.786578</v>
+        <v>1877642728.330456</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1165384684719178</v>
+        <v>0.1670114114115097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04707199307551733</v>
+        <v>0.03277527853387913</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4846274527.915529</v>
+        <v>3577759695.991222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1172665867671327</v>
+        <v>0.1113864614531156</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02629055551910725</v>
+        <v>0.03599949425954448</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2652250794.179162</v>
+        <v>3363368655.872195</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08966594401542524</v>
+        <v>0.1002035043455277</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03480635296329078</v>
+        <v>0.03854980408605761</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2032244855.795661</v>
+        <v>2473762544.254945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.102162640699549</v>
+        <v>0.1452214829289877</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05528745035185598</v>
+        <v>0.04943021150226853</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2857046797.428563</v>
+        <v>2063016453.245666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09631492061831216</v>
+        <v>0.07354720889633579</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03668700657429463</v>
+        <v>0.04191947535801115</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2765679096.684267</v>
+        <v>3072088198.556178</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2140098681082475</v>
+        <v>0.22053158480028</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03265423684913187</v>
+        <v>0.02036672376217754</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1487138316.542423</v>
+        <v>1475674940.013468</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543047658516481</v>
+        <v>0.1858270543581233</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03705560098152854</v>
+        <v>0.03599400717502476</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3590766488.901832</v>
+        <v>3693664068.322867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1892985257818176</v>
+        <v>0.2070077915035653</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03635346029051845</v>
+        <v>0.05212979915258197</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2856240768.773005</v>
+        <v>3496515740.343651</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1709074033340594</v>
+        <v>0.1656759756584857</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0413970229160617</v>
+        <v>0.03248258253972428</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2112912811.698307</v>
+        <v>2954495978.83921</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1447911959438273</v>
+        <v>0.1744978196404988</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04456429555727685</v>
+        <v>0.0381666951426898</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3637157645.728826</v>
+        <v>4131714917.164132</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0760020313863949</v>
+        <v>0.09100483764948715</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02540189610362338</v>
+        <v>0.0306766794340224</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2688901632.259923</v>
+        <v>2594593176.066138</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1644199763107743</v>
+        <v>0.1285846133866655</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03199038363590719</v>
+        <v>0.04362950516365297</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1250598717.884642</v>
+        <v>1203075097.203838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1052569953813323</v>
+        <v>0.09100771192741595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04271186022601762</v>
+        <v>0.03792788625627904</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2345891232.563903</v>
+        <v>1778191814.445716</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08722542422106246</v>
+        <v>0.0892591845565771</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04870504221931899</v>
+        <v>0.04527133906950835</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4147605128.769473</v>
+        <v>3926822635.865939</v>
       </c>
       <c r="F17" t="n">
-        <v>0.106935345610168</v>
+        <v>0.1088010990939258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0443574072255544</v>
+        <v>0.03383531035785013</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2811661021.897191</v>
+        <v>2865453043.947515</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1479302476824746</v>
+        <v>0.1130704987973589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02300910515272574</v>
+        <v>0.02530319036705226</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1115774411.520817</v>
+        <v>921459608.1764106</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1272666148402693</v>
+        <v>0.1311842402638644</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01851435542352391</v>
+        <v>0.01799729211607053</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2399191725.189871</v>
+        <v>2760851646.482295</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1402782942181953</v>
+        <v>0.1334153379365336</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02903705416866111</v>
+        <v>0.03106265200101311</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2250393752.070181</v>
+        <v>1814451665.344735</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06881310196723314</v>
+        <v>0.07527420033294352</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0448878688418313</v>
+        <v>0.0294675192604798</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3568876161.95628</v>
+        <v>3168665720.964378</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1124254860245819</v>
+        <v>0.1257019484995941</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03920161752352651</v>
+        <v>0.05334870376611726</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1199918830.576292</v>
+        <v>1232175641.440156</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1854279542473215</v>
+        <v>0.1396389550878463</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03325526958138866</v>
+        <v>0.04649981010567023</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2567024544.186705</v>
+        <v>2763038184.841427</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1103651995737901</v>
+        <v>0.1133368833368841</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03099770081037234</v>
+        <v>0.03291435368543787</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1259690894.333645</v>
+        <v>1326873527.182378</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08829987369703149</v>
+        <v>0.08410278832962879</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02122902461971608</v>
+        <v>0.02348307914070593</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1052134143.36818</v>
+        <v>1367622257.68639</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1092961874651608</v>
+        <v>0.08682921259416229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03252709042716173</v>
+        <v>0.02557171486454656</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3620745117.347116</v>
+        <v>3863505096.354589</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1570122419435519</v>
+        <v>0.1153921069004824</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02713179058949467</v>
+        <v>0.01751957371637285</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2654246238.397886</v>
+        <v>3092064889.527746</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1324130761537791</v>
+        <v>0.117488049380544</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03598361822651527</v>
+        <v>0.04277599665958189</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3988752794.887126</v>
+        <v>5880887334.342447</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1360734047761363</v>
+        <v>0.127549206288892</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04664969192911681</v>
+        <v>0.03977250364091941</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2175460455.195297</v>
+        <v>2089767814.326662</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1258290953931169</v>
+        <v>0.1397662644882867</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03882608841526165</v>
+        <v>0.03035423404533114</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1202714952.607153</v>
+        <v>1500915208.705581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09710275179119153</v>
+        <v>0.1034744770133552</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04869353763038588</v>
+        <v>0.05103945283632054</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1142783389.616424</v>
+        <v>1262466173.557847</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1194727861198435</v>
+        <v>0.08799345416029666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03550400217545947</v>
+        <v>0.03586157405207234</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2971351906.871477</v>
+        <v>2169163087.434013</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1774016505261143</v>
+        <v>0.1899593183978538</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04826729371826698</v>
+        <v>0.04591561862884887</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1436453213.738169</v>
+        <v>1430841636.256918</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1216537868441414</v>
+        <v>0.1162123278289098</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01933915845821371</v>
+        <v>0.01733267975522141</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1127972787.223479</v>
+        <v>1179385079.559288</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0957978835700577</v>
+        <v>0.1136076633058254</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04401948210795555</v>
+        <v>0.03394868379685174</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2346048026.46714</v>
+        <v>2971341145.424772</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1523441318784523</v>
+        <v>0.1683336729433803</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02409288295184344</v>
+        <v>0.02002029681239658</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2527421398.026611</v>
+        <v>2207704636.29053</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08324910004366175</v>
+        <v>0.07601847920977078</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03670041971121277</v>
+        <v>0.033832296656628</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1601922459.231586</v>
+        <v>1596225645.736941</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08644182355586966</v>
+        <v>0.114943421253632</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03342647570897458</v>
+        <v>0.02865826434876397</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1566854116.738382</v>
+        <v>1397249582.618388</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1682120291908058</v>
+        <v>0.1507747198346755</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02746329924493565</v>
+        <v>0.03166837724836331</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1139618683.513702</v>
+        <v>1139993255.252049</v>
       </c>
       <c r="F40" t="n">
-        <v>0.105559292742304</v>
+        <v>0.1356777268800594</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04958241709861241</v>
+        <v>0.04271632834852495</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2023456208.16281</v>
+        <v>2064834721.539646</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1316311607234886</v>
+        <v>0.1009062508070643</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0411039129335455</v>
+        <v>0.04739577337266637</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3410449901.794729</v>
+        <v>3737781242.301429</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093596473893581</v>
+        <v>0.1221090895862856</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04246401033744112</v>
+        <v>0.03627174684712567</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3040581646.62321</v>
+        <v>2792084813.6462</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1952660978188308</v>
+        <v>0.1920862552635371</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01576669332157617</v>
+        <v>0.02374515429674772</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2077977052.859198</v>
+        <v>2302764196.243855</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06874219036952639</v>
+        <v>0.0848602982704862</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03642762982485489</v>
+        <v>0.02503956957563433</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2342536784.763286</v>
+        <v>1989836819.893952</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1217000711247836</v>
+        <v>0.1721256422176615</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03783344350968255</v>
+        <v>0.03961699736832772</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4970259070.799457</v>
+        <v>4323871110.061129</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1154213838022296</v>
+        <v>0.1209893000309654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05991580239645298</v>
+        <v>0.05268756328886182</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3874903612.158066</v>
+        <v>3682012611.965368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1412532771457305</v>
+        <v>0.2026247456288111</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04852940755187029</v>
+        <v>0.04994063753094161</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3867496163.537936</v>
+        <v>4537096619.911413</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1015506989893339</v>
+        <v>0.08083441972951497</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03920373839322872</v>
+        <v>0.03692647825053391</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1652451279.825978</v>
+        <v>1463358319.352034</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1425144392242158</v>
+        <v>0.1409567094948988</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04440341713603263</v>
+        <v>0.04038702725542485</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3996195988.008653</v>
+        <v>3583285623.957502</v>
       </c>
       <c r="F50" t="n">
-        <v>0.10937630260772</v>
+        <v>0.1645634874501968</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04564622685223154</v>
+        <v>0.04817509835040143</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1057619819.046402</v>
+        <v>1199671772.48444</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1930340244504236</v>
+        <v>0.1602284689980421</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04380913046870116</v>
+        <v>0.04057563209547315</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4772812535.811394</v>
+        <v>5261855781.408633</v>
       </c>
       <c r="F52" t="n">
-        <v>0.105313816667171</v>
+        <v>0.1264453091400523</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04913534851959853</v>
+        <v>0.05251205122837185</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3367929305.315198</v>
+        <v>2659064702.978655</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1430643002001183</v>
+        <v>0.1690735094356385</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03285203815686216</v>
+        <v>0.03408978819481794</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4302741877.816242</v>
+        <v>3420291766.328256</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1074313695960785</v>
+        <v>0.1283350192343065</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04752288609977247</v>
+        <v>0.04131304385696305</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3833923533.091042</v>
+        <v>4615118966.028517</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1570726686484152</v>
+        <v>0.1660319581909784</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03003833037082694</v>
+        <v>0.01997272535940741</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1593337314.834497</v>
+        <v>1859556859.392253</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1187228015471154</v>
+        <v>0.1119191096650682</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03999082285966488</v>
+        <v>0.04109684118399723</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3909304217.500289</v>
+        <v>4430389005.608869</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1674662468492642</v>
+        <v>0.1614489995355538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02078429713169738</v>
+        <v>0.02008747820160258</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1481332568.739551</v>
+        <v>1182085375.829039</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1440405711027632</v>
+        <v>0.1695621486203287</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02879841426334774</v>
+        <v>0.03043349054172834</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4389375872.706089</v>
+        <v>4533442859.092316</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1062419942981381</v>
+        <v>0.1092344486093175</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04699491011506975</v>
+        <v>0.04854700776273718</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2668688165.468032</v>
+        <v>2363515198.099009</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2022110269033101</v>
+        <v>0.126864733818692</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02594403369725876</v>
+        <v>0.02514404423051947</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2771597272.874711</v>
+        <v>2630934666.739536</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1145194090264875</v>
+        <v>0.140995640941342</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02232413433018021</v>
+        <v>0.030807076129483</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2082341722.051746</v>
+        <v>1890902222.337795</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1345607052635687</v>
+        <v>0.1503854030591162</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04753818745004324</v>
+        <v>0.04897878386193098</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4006351627.565485</v>
+        <v>4946284913.935618</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1009211383783633</v>
+        <v>0.09931288471953212</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04127778867185117</v>
+        <v>0.04540616895225882</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4230043090.781811</v>
+        <v>4966886468.572793</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1404776633630674</v>
+        <v>0.1714136457605879</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03391882272386849</v>
+        <v>0.03049769687509382</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4394573513.897434</v>
+        <v>3637530448.981391</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1131004826315166</v>
+        <v>0.1095894652306535</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02168033320346002</v>
+        <v>0.03010042601460136</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5309920358.099105</v>
+        <v>5383562769.07152</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1534499219949688</v>
+        <v>0.1212476750476428</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03547924171038279</v>
+        <v>0.04513257724795287</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2600067817.79355</v>
+        <v>2596274044.658167</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08150119614546444</v>
+        <v>0.06820505784140579</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03962823855934956</v>
+        <v>0.04722512278681659</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3815588167.452674</v>
+        <v>5536134733.992367</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09837842754243296</v>
+        <v>0.124935131393839</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03235305989323113</v>
+        <v>0.04063684824561275</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2287631163.369631</v>
+        <v>2402799590.736316</v>
       </c>
       <c r="F69" t="n">
-        <v>0.165877701847519</v>
+        <v>0.1172724118759366</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05145746163103871</v>
+        <v>0.04362178145810471</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2815757041.760952</v>
+        <v>2705833852.958808</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08766007780772139</v>
+        <v>0.06266938754775152</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03325255569259483</v>
+        <v>0.03576001676543517</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4391693439.712631</v>
+        <v>5118292463.960431</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1414440813772212</v>
+        <v>0.1524401754700731</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02470228765456891</v>
+        <v>0.02443979921955558</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2184720115.789971</v>
+        <v>2206497491.190994</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09211511119842433</v>
+        <v>0.08329825086709958</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03344858579713605</v>
+        <v>0.05206115570973497</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2337020169.018044</v>
+        <v>2993641334.159687</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0870067903253241</v>
+        <v>0.1042737006926912</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04803649679214246</v>
+        <v>0.04897141709958273</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2822394054.345779</v>
+        <v>3590627689.633526</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1697250028221253</v>
+        <v>0.1185143367680614</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03089280241949175</v>
+        <v>0.02491957668380259</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2030626289.46671</v>
+        <v>1979211470.024277</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1336874769038571</v>
+        <v>0.119870221964287</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0235089407169482</v>
+        <v>0.03526406886298963</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5080588738.71639</v>
+        <v>3380669404.051745</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1026206416642289</v>
+        <v>0.1090320618555071</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02346917859929668</v>
+        <v>0.02601207602433891</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1833509169.898318</v>
+        <v>1960979290.463458</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1561857428434581</v>
+        <v>0.1761339552893369</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02687088945313259</v>
+        <v>0.02977951121666814</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3503683791.344437</v>
+        <v>4194621199.969625</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1223985321664251</v>
+        <v>0.1014768646014992</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04262590112884457</v>
+        <v>0.05250230859739047</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1373559670.077451</v>
+        <v>1172069937.541466</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1340909957507299</v>
+        <v>0.1742697810850601</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02936764882774613</v>
+        <v>0.03081578720058542</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4662786405.077617</v>
+        <v>5039829761.243436</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1062326948569647</v>
+        <v>0.09775167923007808</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03291728865227248</v>
+        <v>0.03336774511593728</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3348277130.750385</v>
+        <v>3609464243.270858</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1091400260783676</v>
+        <v>0.09515670463590287</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02088245413085498</v>
+        <v>0.0209460263747628</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4679876012.271881</v>
+        <v>3843332509.352976</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1948092962599926</v>
+        <v>0.1704436009384351</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01937290917840838</v>
+        <v>0.01972431970547115</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1739904379.827492</v>
+        <v>2366136829.340566</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1355456410651588</v>
+        <v>0.1439876211105163</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02845235498933677</v>
+        <v>0.036855572788604</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1629742199.38997</v>
+        <v>2037097572.463146</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08093458226974028</v>
+        <v>0.1121109860600409</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04169797728142513</v>
+        <v>0.04514897991636308</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2920408607.073363</v>
+        <v>2743628774.504861</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1361602795540013</v>
+        <v>0.115846104579167</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05340006820967567</v>
+        <v>0.04305729611450227</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2637924167.772143</v>
+        <v>1769680000.796594</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1190740095570123</v>
+        <v>0.1051971479648363</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02562433380443106</v>
+        <v>0.0273987487735123</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1237006880.863766</v>
+        <v>1025672689.168405</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121411376947222</v>
+        <v>0.1437696060608478</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0322328604379683</v>
+        <v>0.02782214799141289</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3053256555.532187</v>
+        <v>3662129922.993119</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1394517811217557</v>
+        <v>0.1561812120563269</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03343455565926698</v>
+        <v>0.02932209512376191</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2411825894.359596</v>
+        <v>2124681316.044308</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1488901633461147</v>
+        <v>0.1023109443950915</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03422109700147316</v>
+        <v>0.03971332895765108</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1501515270.229321</v>
+        <v>1835066577.23637</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09575604398100537</v>
+        <v>0.125750501960383</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03696021226018785</v>
+        <v>0.04296739388742496</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1994009367.514678</v>
+        <v>1610289478.100372</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1366241465469025</v>
+        <v>0.1947167014538161</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05590334142593229</v>
+        <v>0.06057917536191062</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2889249981.666149</v>
+        <v>2827546702.087269</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07971502261603507</v>
+        <v>0.1060281362216332</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04312081398692075</v>
+        <v>0.03539225608565946</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3368748742.384907</v>
+        <v>3830189460.145698</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1009093218576139</v>
+        <v>0.1071754958548022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03692124067036189</v>
+        <v>0.0520446040046493</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1938647000.220876</v>
+        <v>1858975953.300662</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1324285111066005</v>
+        <v>0.1313066050633697</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03042735080646443</v>
+        <v>0.03332230281598886</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2337065346.469604</v>
+        <v>2571266038.800295</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1179815649222402</v>
+        <v>0.08776338688289241</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04122097139596149</v>
+        <v>0.03873426102261378</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1452251185.508881</v>
+        <v>2032495339.205061</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1418141199374612</v>
+        <v>0.1362025031175085</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03783179818810279</v>
+        <v>0.03285461821927764</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4716304830.722993</v>
+        <v>4199698463.822271</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1181704253612305</v>
+        <v>0.1746027160078806</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02026668907337243</v>
+        <v>0.02132726718129582</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2715507314.600338</v>
+        <v>3025345683.969707</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1095203639091779</v>
+        <v>0.08474005047306506</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02421902098951688</v>
+        <v>0.02276524656466822</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3240560334.400573</v>
+        <v>2791992177.621026</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1100984426059981</v>
+        <v>0.1236755279847915</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03270090228475978</v>
+        <v>0.03538412633885159</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4540639849.747556</v>
+        <v>4805159985.29431</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1728097411435841</v>
+        <v>0.1420624436908049</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0223730737823011</v>
+        <v>0.02688967048909644</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3400190926.697374</v>
+        <v>2218506632.049458</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1926545870519437</v>
+        <v>0.1409871854356226</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03800557069024638</v>
+        <v>0.05557296702093561</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_378.xlsx
+++ b/output/fit_clients/fit_round_378.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1754846498.815847</v>
+        <v>2107487688.570583</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07036056636130773</v>
+        <v>0.08588439526583129</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04012398368665425</v>
+        <v>0.03703715414793383</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1877642728.330456</v>
+        <v>2405782285.854098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1670114114115097</v>
+        <v>0.1603774370325882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03277527853387913</v>
+        <v>0.03090478119597007</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3577759695.991222</v>
+        <v>3458460029.268447</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1113864614531156</v>
+        <v>0.1411282643721074</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03599949425954448</v>
+        <v>0.02661551553106745</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>194</v>
+      </c>
+      <c r="J4" t="n">
+        <v>377</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37.62996170262135</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3363368655.872195</v>
+        <v>2640303758.38082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1002035043455277</v>
+        <v>0.09435505693167777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03854980408605761</v>
+        <v>0.0425048852216799</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>151</v>
+      </c>
+      <c r="J5" t="n">
+        <v>377</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.53286589343959</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2473762544.254945</v>
+        <v>2861493398.820769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1452214829289877</v>
+        <v>0.1226116523200811</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04943021150226853</v>
+        <v>0.05349250693198028</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2063016453.245666</v>
+        <v>2738365061.314557</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07354720889633579</v>
+        <v>0.0769924149222906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04191947535801115</v>
+        <v>0.02992845715739619</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3072088198.556178</v>
+        <v>3812711072.649313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22053158480028</v>
+        <v>0.1798581599494</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02036672376217754</v>
+        <v>0.02860215998516805</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="n">
+        <v>378</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1475674940.013468</v>
+        <v>1988369435.498597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1858270543581233</v>
+        <v>0.1582732897539645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03599400717502476</v>
+        <v>0.02406374155962712</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3693664068.322867</v>
+        <v>5869527621.244538</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2070077915035653</v>
+        <v>0.176762410421896</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05212979915258197</v>
+        <v>0.04112225010303353</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>311</v>
+      </c>
+      <c r="J10" t="n">
+        <v>377</v>
+      </c>
+      <c r="K10" t="n">
+        <v>53.00659225482891</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3496515740.343651</v>
+        <v>4095017151.069863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1656759756584857</v>
+        <v>0.130039908539831</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03248258253972428</v>
+        <v>0.04580996062754438</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>159</v>
+      </c>
+      <c r="J11" t="n">
+        <v>378</v>
+      </c>
+      <c r="K11" t="n">
+        <v>59.28460353787518</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2954495978.83921</v>
+        <v>2960174792.703493</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1744978196404988</v>
+        <v>0.1872860413848026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0381666951426898</v>
+        <v>0.04355586609662478</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4131714917.164132</v>
+        <v>3574231470.054635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09100483764948715</v>
+        <v>0.09043566877264959</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0306766794340224</v>
+        <v>0.02279113433773042</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>196</v>
+      </c>
+      <c r="J13" t="n">
+        <v>376</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2594593176.066138</v>
+        <v>2765900473.034778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1285846133866655</v>
+        <v>0.1543193705609315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04362950516365297</v>
+        <v>0.03271238874366857</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>78</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1203075097.203838</v>
+        <v>1205525047.78309</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09100771192741595</v>
+        <v>0.07144772113511595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03792788625627904</v>
+        <v>0.04708420763037603</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1778191814.445716</v>
+        <v>2502676353.503436</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0892591845565771</v>
+        <v>0.09770897583291195</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04527133906950835</v>
+        <v>0.0454195798302439</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3926822635.865939</v>
+        <v>4388002352.249022</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1088010990939258</v>
+        <v>0.1644911741754429</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03383531035785013</v>
+        <v>0.0471406990484174</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>179</v>
+      </c>
+      <c r="J17" t="n">
+        <v>378</v>
+      </c>
+      <c r="K17" t="n">
+        <v>55.46639920504801</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2865453043.947515</v>
+        <v>4017995938.580193</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1130704987973589</v>
+        <v>0.1119624563904357</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02530319036705226</v>
+        <v>0.02524197407104711</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>378</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>921459608.1764106</v>
+        <v>1195869528.566077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1311842402638644</v>
+        <v>0.1204779392385044</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01799729211607053</v>
+        <v>0.02042036232332551</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2760851646.482295</v>
+        <v>2547354546.425534</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1334153379365336</v>
+        <v>0.137050081380244</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03106265200101311</v>
+        <v>0.0289347846134873</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1814451665.344735</v>
+        <v>2291500197.218853</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07527420033294352</v>
+        <v>0.08873327022129433</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0294675192604798</v>
+        <v>0.04076017016756826</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3168665720.964378</v>
+        <v>3273499195.833678</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1257019484995941</v>
+        <v>0.09467844353208024</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05334870376611726</v>
+        <v>0.0459884704167678</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>106</v>
+      </c>
+      <c r="J22" t="n">
+        <v>377</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40.45475822677515</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1232175641.440156</v>
+        <v>1112306210.593114</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1396389550878463</v>
+        <v>0.1569882835007573</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04649981010567023</v>
+        <v>0.04871629880347499</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2763038184.841427</v>
+        <v>2897211994.966599</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1133368833368841</v>
+        <v>0.1015316969592101</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03291435368543787</v>
+        <v>0.03539646246947308</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>117</v>
+      </c>
+      <c r="J24" t="n">
+        <v>377</v>
+      </c>
+      <c r="K24" t="n">
+        <v>29.72361285344827</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1326873527.182378</v>
+        <v>1339786817.83404</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08410278832962879</v>
+        <v>0.110511921142485</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02348307914070593</v>
+        <v>0.02744714877870617</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1367622257.68639</v>
+        <v>1215225986.220352</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08682921259416229</v>
+        <v>0.09916965107538306</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02557171486454656</v>
+        <v>0.03337282716361448</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3863505096.354589</v>
+        <v>3344868192.781261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1153921069004824</v>
+        <v>0.1493837537611548</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01751957371637285</v>
+        <v>0.02359952849839139</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>157</v>
+      </c>
+      <c r="J27" t="n">
+        <v>376</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3092064889.527746</v>
+        <v>2793183270.227804</v>
       </c>
       <c r="F28" t="n">
-        <v>0.117488049380544</v>
+        <v>0.120163366714686</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04277599665958189</v>
+        <v>0.03608693465440367</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="n">
+        <v>33.16099933591508</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1462,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5880887334.342447</v>
+        <v>3965544971.447742</v>
       </c>
       <c r="F29" t="n">
-        <v>0.127549206288892</v>
+        <v>0.09142167607345496</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03977250364091941</v>
+        <v>0.03031230934250018</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>327</v>
+      </c>
+      <c r="J29" t="n">
+        <v>378</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2089767814.326662</v>
+        <v>1740444234.684898</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1397662644882867</v>
+        <v>0.1201713536506541</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03035423404533114</v>
+        <v>0.03933231101019465</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1500915208.705581</v>
+        <v>1044248536.127916</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1034744770133552</v>
+        <v>0.08603779275171254</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05103945283632054</v>
+        <v>0.03240506273472516</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1262466173.557847</v>
+        <v>1318206110.836275</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08799345416029666</v>
+        <v>0.08251736630819935</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03586157405207234</v>
+        <v>0.02626983229914943</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2169163087.434013</v>
+        <v>2274587582.970914</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1899593183978538</v>
+        <v>0.1545071134010366</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04591561862884887</v>
+        <v>0.0469554392970422</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1430841636.256918</v>
+        <v>1548099827.983393</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1162123278289098</v>
+        <v>0.1088890698205843</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01733267975522141</v>
+        <v>0.02206261594506766</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1179385079.559288</v>
+        <v>914398155.9541221</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1136076633058254</v>
+        <v>0.08382254533341051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03394868379685174</v>
+        <v>0.03000006318566946</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2971341145.424772</v>
+        <v>2166504115.221654</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1683336729433803</v>
+        <v>0.1153605325699793</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02002029681239658</v>
+        <v>0.02900057409786409</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2207704636.29053</v>
+        <v>2909968195.22487</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07601847920977078</v>
+        <v>0.1005923794682808</v>
       </c>
       <c r="G37" t="n">
-        <v>0.033832296656628</v>
+        <v>0.03711490044188066</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1596225645.736941</v>
+        <v>1881333178.920995</v>
       </c>
       <c r="F38" t="n">
-        <v>0.114943421253632</v>
+        <v>0.07703175814978142</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02865826434876397</v>
+        <v>0.03270797131620762</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1397249582.618388</v>
+        <v>1874313189.900104</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1507747198346755</v>
+        <v>0.1265421872021276</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03166837724836331</v>
+        <v>0.02481964745619277</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1139993255.252049</v>
+        <v>1753472338.155955</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1356777268800594</v>
+        <v>0.1560585656756874</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04271632834852495</v>
+        <v>0.0508016267419039</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2064834721.539646</v>
+        <v>2145132269.717829</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1009062508070643</v>
+        <v>0.1127811241244001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04739577337266637</v>
+        <v>0.04196682562432221</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3737781242.301429</v>
+        <v>2827209763.6612</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1221090895862856</v>
+        <v>0.09163404585821487</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03627174684712567</v>
+        <v>0.03196229272352772</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>166</v>
+      </c>
+      <c r="J42" t="n">
+        <v>375</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2792084813.6462</v>
+        <v>2839484684.041733</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1920862552635371</v>
+        <v>0.1642703782160131</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02374515429674772</v>
+        <v>0.02383290888612747</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2302764196.243855</v>
+        <v>2103196290.246002</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0848602982704862</v>
+        <v>0.08987054482920234</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02503956957563433</v>
+        <v>0.03202087395697102</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1989836819.893952</v>
+        <v>1666414868.053158</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1721256422176615</v>
+        <v>0.1224425667386782</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03961699736832772</v>
+        <v>0.04131671307054034</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4323871110.061129</v>
+        <v>3446624710.676249</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1209893000309654</v>
+        <v>0.1098383707981218</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05268756328886182</v>
+        <v>0.05481272574311184</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>226</v>
+      </c>
+      <c r="J46" t="n">
+        <v>377</v>
+      </c>
+      <c r="K46" t="n">
+        <v>39.47986706872859</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3682012611.965368</v>
+        <v>4477247981.561049</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2026247456288111</v>
+        <v>0.1633644532161304</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04994063753094161</v>
+        <v>0.03877231397414012</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>169</v>
+      </c>
+      <c r="J47" t="n">
+        <v>377</v>
+      </c>
+      <c r="K47" t="n">
+        <v>49.53960479746577</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4537096619.911413</v>
+        <v>4032575454.0327</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08083441972951497</v>
+        <v>0.09211143401217067</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03692647825053391</v>
+        <v>0.02963225501787382</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>195</v>
+      </c>
+      <c r="J48" t="n">
+        <v>378</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1463358319.352034</v>
+        <v>1650069110.304329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1409567094948988</v>
+        <v>0.1407344903796081</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04038702725542485</v>
+        <v>0.04392992236949168</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3583285623.957502</v>
+        <v>4157551680.327818</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645634874501968</v>
+        <v>0.1600953752616461</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04817509835040143</v>
+        <v>0.03447292382826533</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>128</v>
+      </c>
+      <c r="J50" t="n">
+        <v>378</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61.83237920090221</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1199671772.48444</v>
+        <v>1367373180.745351</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1602284689980421</v>
+        <v>0.1591935818595091</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04057563209547315</v>
+        <v>0.0390869401955269</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2273,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5261855781.408633</v>
+        <v>5057208408.292338</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1264453091400523</v>
+        <v>0.1267196339952996</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05251205122837185</v>
+        <v>0.05948092476782185</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>222</v>
+      </c>
+      <c r="J52" t="n">
+        <v>377</v>
+      </c>
+      <c r="K52" t="n">
+        <v>53.20284021595647</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2659064702.978655</v>
+        <v>3107786902.349915</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1690735094356385</v>
+        <v>0.1687098842938861</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03408978819481794</v>
+        <v>0.0264902836885751</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3420291766.328256</v>
+        <v>4193396972.868434</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1283350192343065</v>
+        <v>0.1135230368630589</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04131304385696305</v>
+        <v>0.03525251912669435</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>201</v>
+      </c>
+      <c r="J54" t="n">
+        <v>378</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4615118966.028517</v>
+        <v>3650462525.716779</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1660319581909784</v>
+        <v>0.2147001535360766</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01997272535940741</v>
+        <v>0.02070122639096953</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>181</v>
+      </c>
+      <c r="J55" t="n">
+        <v>378</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1859556859.392253</v>
+        <v>1845581982.837929</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1119191096650682</v>
+        <v>0.1415947137116478</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04109684118399723</v>
+        <v>0.05395405402304921</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4430389005.608869</v>
+        <v>3822207655.050469</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1614489995355538</v>
+        <v>0.1832545622960494</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02008747820160258</v>
+        <v>0.02671810623753717</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>159</v>
+      </c>
+      <c r="J57" t="n">
+        <v>378</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1182085375.829039</v>
+        <v>1326476066.20776</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1695621486203287</v>
+        <v>0.1567057743470076</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03043349054172834</v>
+        <v>0.02871979076139132</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4533442859.092316</v>
+        <v>5248703214.614954</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1092344486093175</v>
+        <v>0.1174469383188832</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04854700776273718</v>
+        <v>0.03638581357253112</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>184</v>
+      </c>
+      <c r="J59" t="n">
+        <v>377</v>
+      </c>
+      <c r="K59" t="n">
+        <v>52.4337750473152</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2551,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2363515198.099009</v>
+        <v>2599870963.200834</v>
       </c>
       <c r="F60" t="n">
-        <v>0.126864733818692</v>
+        <v>0.1400964252635724</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02514404423051947</v>
+        <v>0.02751051356310936</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>70</v>
+      </c>
+      <c r="J60" t="n">
+        <v>377</v>
+      </c>
+      <c r="K60" t="n">
+        <v>31.16855346979032</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2630934666.739536</v>
+        <v>2185391963.346067</v>
       </c>
       <c r="F61" t="n">
-        <v>0.140995640941342</v>
+        <v>0.135852637366355</v>
       </c>
       <c r="G61" t="n">
-        <v>0.030807076129483</v>
+        <v>0.02368403556676018</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1890902222.337795</v>
+        <v>1957690461.905616</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1503854030591162</v>
+        <v>0.1862716576392228</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04897878386193098</v>
+        <v>0.03317620532754942</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4946284913.935618</v>
+        <v>5556509733.237982</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09931288471953212</v>
+        <v>0.08164986081707838</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04540616895225882</v>
+        <v>0.03708555315551536</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>186</v>
+      </c>
+      <c r="J63" t="n">
+        <v>378</v>
+      </c>
+      <c r="K63" t="n">
+        <v>55.42640120595981</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2701,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4966886468.572793</v>
+        <v>4212187747.396874</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1714136457605879</v>
+        <v>0.1748195943371674</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03049769687509382</v>
+        <v>0.02889837961805215</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>188</v>
+      </c>
+      <c r="J64" t="n">
+        <v>377</v>
+      </c>
+      <c r="K64" t="n">
+        <v>51.01018380930509</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2738,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3637530448.981391</v>
+        <v>5309954212.978663</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1095894652306535</v>
+        <v>0.1633376101360666</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03010042601460136</v>
+        <v>0.02951732136550204</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>284</v>
+      </c>
+      <c r="J65" t="n">
+        <v>378</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2767,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5383562769.07152</v>
+        <v>4704754532.4376</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1212476750476428</v>
+        <v>0.1053317432953704</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04513257724795287</v>
+        <v>0.04270041516414453</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>187</v>
+      </c>
+      <c r="J66" t="n">
+        <v>377</v>
+      </c>
+      <c r="K66" t="n">
+        <v>51.40899798637662</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2804,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2596274044.658167</v>
+        <v>2343748540.95647</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06820505784140579</v>
+        <v>0.06569235803295974</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04722512278681659</v>
+        <v>0.03922328549637268</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2839,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5536134733.992367</v>
+        <v>4020266040.594314</v>
       </c>
       <c r="F68" t="n">
-        <v>0.124935131393839</v>
+        <v>0.1437300481509937</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04063684824561275</v>
+        <v>0.04155004890927458</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>205</v>
+      </c>
+      <c r="J68" t="n">
+        <v>377</v>
+      </c>
+      <c r="K68" t="n">
+        <v>53.79103966044799</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2876,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2402799590.736316</v>
+        <v>1513058624.409826</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1172724118759366</v>
+        <v>0.1609393230782124</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04362178145810471</v>
+        <v>0.05130668163799647</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2911,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2705833852.958808</v>
+        <v>3235535612.128584</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06266938754775152</v>
+        <v>0.1000973935902542</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03576001676543517</v>
+        <v>0.03951049001075191</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2946,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5118292463.960431</v>
+        <v>4047195850.352188</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1524401754700731</v>
+        <v>0.1595653431545011</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02443979921955558</v>
+        <v>0.02585807103947377</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>270</v>
+      </c>
+      <c r="J71" t="n">
+        <v>378</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2981,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2206497491.190994</v>
+        <v>1899287735.035994</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08329825086709958</v>
+        <v>0.1078521924452789</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05206115570973497</v>
+        <v>0.03422160497479242</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2993641334.159687</v>
+        <v>3577231914.895168</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1042737006926912</v>
+        <v>0.0814138797727061</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04897141709958273</v>
+        <v>0.03406168954829806</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>26</v>
+      </c>
+      <c r="J73" t="n">
+        <v>378</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3590627689.633526</v>
+        <v>3414899910.367743</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1185143367680614</v>
+        <v>0.1543067766429124</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02491957668380259</v>
+        <v>0.03421668737410092</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>107</v>
+      </c>
+      <c r="J74" t="n">
+        <v>373</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3092,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1979211470.024277</v>
+        <v>1519737921.855892</v>
       </c>
       <c r="F75" t="n">
-        <v>0.119870221964287</v>
+        <v>0.1414496085837912</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03526406886298963</v>
+        <v>0.03205648141723411</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3380669404.051745</v>
+        <v>4846601679.940316</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1090320618555071</v>
+        <v>0.1188854221925094</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02601207602433891</v>
+        <v>0.02221816678369553</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>178</v>
+      </c>
+      <c r="J76" t="n">
+        <v>378</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1960979290.463458</v>
+        <v>2264326324.077919</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1761339552893369</v>
+        <v>0.1181678830028782</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02977951121666814</v>
+        <v>0.02878632589580814</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4194621199.969625</v>
+        <v>4108258927.846972</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1014768646014992</v>
+        <v>0.1139171999903931</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05250230859739047</v>
+        <v>0.05676463869634277</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>189</v>
+      </c>
+      <c r="J78" t="n">
+        <v>378</v>
+      </c>
+      <c r="K78" t="n">
+        <v>57.83421294281569</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1172069937.541466</v>
+        <v>1273482696.214954</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1742697810850601</v>
+        <v>0.1162569170617859</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03081578720058542</v>
+        <v>0.025985849279849</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3263,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5039829761.243436</v>
+        <v>3738670783.595</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09775167923007808</v>
+        <v>0.1062600291891674</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03336774511593728</v>
+        <v>0.03162943570518534</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>184</v>
+      </c>
+      <c r="J80" t="n">
+        <v>378</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3609464243.270858</v>
+        <v>4054282681.794841</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09515670463590287</v>
+        <v>0.08487986638680088</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0209460263747628</v>
+        <v>0.0312342479249123</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>175</v>
+      </c>
+      <c r="J81" t="n">
+        <v>378</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3843332509.352976</v>
+        <v>4065820299.466414</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1704436009384351</v>
+        <v>0.196630037681553</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01972431970547115</v>
+        <v>0.02677832121994203</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>262</v>
+      </c>
+      <c r="J82" t="n">
+        <v>377</v>
+      </c>
+      <c r="K82" t="n">
+        <v>53.97076166933465</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2366136829.340566</v>
+        <v>2484497233.084455</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1439876211105163</v>
+        <v>0.1441871339308912</v>
       </c>
       <c r="G83" t="n">
-        <v>0.036855572788604</v>
+        <v>0.04096440857132268</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2037097572.463146</v>
+        <v>2280934017.926927</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1121109860600409</v>
+        <v>0.1143129158993953</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04514897991636308</v>
+        <v>0.03573940692780015</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2743628774.504861</v>
+        <v>2790560759.427222</v>
       </c>
       <c r="F85" t="n">
-        <v>0.115846104579167</v>
+        <v>0.1550839199143879</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04305729611450227</v>
+        <v>0.04351050510446531</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1769680000.796594</v>
+        <v>2410212210.845225</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1051971479648363</v>
+        <v>0.1112923711999853</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0273987487735123</v>
+        <v>0.02639240994025426</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1025672689.168405</v>
+        <v>1482397403.846627</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1437696060608478</v>
+        <v>0.1428437527531287</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02782214799141289</v>
+        <v>0.02753926668138815</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3551,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3662129922.993119</v>
+        <v>3160577268.582624</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1561812120563269</v>
+        <v>0.1108713917846221</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02932209512376191</v>
+        <v>0.03115674551295509</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3586,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2124681316.044308</v>
+        <v>2578241069.29979</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1023109443950915</v>
+        <v>0.1208888252221348</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03971332895765108</v>
+        <v>0.03633333073862201</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1835066577.23637</v>
+        <v>1875081243.611495</v>
       </c>
       <c r="F90" t="n">
-        <v>0.125750501960383</v>
+        <v>0.09509126113647491</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04296739388742496</v>
+        <v>0.05064108749810797</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1610289478.100372</v>
+        <v>1802393106.215019</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1947167014538161</v>
+        <v>0.1470702370440608</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06057917536191062</v>
+        <v>0.0439486014582446</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3691,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2827546702.087269</v>
+        <v>2541442648.159464</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1060281362216332</v>
+        <v>0.09239706515620802</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03539225608565946</v>
+        <v>0.03735020502430939</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3830189460.145698</v>
+        <v>3559308337.81399</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1071754958548022</v>
+        <v>0.1044934304039623</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0520446040046493</v>
+        <v>0.05317695862902463</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>178</v>
+      </c>
+      <c r="J93" t="n">
+        <v>376</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1858975953.300662</v>
+        <v>2136810678.236379</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1313066050633697</v>
+        <v>0.1661261961866252</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03332230281598886</v>
+        <v>0.02774893148143803</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2571266038.800295</v>
+        <v>2458982954.076167</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08776338688289241</v>
+        <v>0.1304636023587146</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03873426102261378</v>
+        <v>0.03502724501519301</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2032495339.205061</v>
+        <v>2307007282.11114</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362025031175085</v>
+        <v>0.1106409628349393</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03285461821927764</v>
+        <v>0.04543348774845751</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4199698463.822271</v>
+        <v>4123169736.633537</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746027160078806</v>
+        <v>0.1160000090515814</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02132726718129582</v>
+        <v>0.02552062633064496</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>195</v>
+      </c>
+      <c r="J97" t="n">
+        <v>378</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3025345683.969707</v>
+        <v>2378380552.711277</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08474005047306506</v>
+        <v>0.1216168575334414</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02276524656466822</v>
+        <v>0.0248937824679698</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2791992177.621026</v>
+        <v>3288623557.420192</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1236755279847915</v>
+        <v>0.1108500454444583</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03538412633885159</v>
+        <v>0.02825873170609237</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4805159985.29431</v>
+        <v>4333099905.646613</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1420624436908049</v>
+        <v>0.1237423313467205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02688967048909644</v>
+        <v>0.02113222765939788</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>173</v>
+      </c>
+      <c r="J100" t="n">
+        <v>378</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2218506632.049458</v>
+        <v>2979797577.247696</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1409871854356226</v>
+        <v>0.1801081431955846</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05557296702093561</v>
+        <v>0.05671055358599006</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
